--- a/Chapter 2/Spreadsheet Car.xlsx
+++ b/Chapter 2/Spreadsheet Car.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kshitij/Downloads/Car-Dealership-Database-main/Chapter 2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kshitij/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{284A4C8D-2ACF-2446-95A3-CE5A5D4B8CCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B33100D9-7058-ED41-B612-5B78BCFD1B60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="23260" windowHeight="12580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -450,7 +450,7 @@
   <dimension ref="A1:E1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="C3" sqref="C3:D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -492,12 +492,8 @@
       <c r="B3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="6">
-        <v>43871</v>
-      </c>
-      <c r="D3" s="6">
-        <v>40237</v>
-      </c>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
       <c r="E3" s="5" t="s">
         <v>6</v>
       </c>
@@ -507,12 +503,8 @@
       <c r="B4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="6">
-        <v>43871</v>
-      </c>
-      <c r="D4" s="6">
-        <v>40237</v>
-      </c>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
       <c r="E4" s="5" t="s">
         <v>6</v>
       </c>
@@ -522,12 +514,8 @@
       <c r="B5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="6">
-        <v>43871</v>
-      </c>
-      <c r="D5" s="6">
-        <v>40237</v>
-      </c>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
       <c r="E5" s="5" t="s">
         <v>6</v>
       </c>
@@ -555,12 +543,8 @@
       <c r="B8" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="6">
-        <v>43871</v>
-      </c>
-      <c r="D8" s="6">
-        <v>40237</v>
-      </c>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
       <c r="E8" s="5" t="s">
         <v>6</v>
       </c>
@@ -570,12 +554,8 @@
       <c r="B9" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="6">
-        <v>43871</v>
-      </c>
-      <c r="D9" s="6">
-        <v>40237</v>
-      </c>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
       <c r="E9" s="5" t="s">
         <v>6</v>
       </c>
@@ -585,12 +565,8 @@
       <c r="B10" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="6">
-        <v>43871</v>
-      </c>
-      <c r="D10" s="6">
-        <v>40237</v>
-      </c>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
       <c r="E10" s="5" t="s">
         <v>6</v>
       </c>
@@ -616,12 +592,8 @@
       <c r="B13" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="6">
-        <v>43871</v>
-      </c>
-      <c r="D13" s="6">
-        <v>40237</v>
-      </c>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
       <c r="E13" s="5" t="s">
         <v>6</v>
       </c>
@@ -631,12 +603,8 @@
       <c r="B14" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="6">
-        <v>43871</v>
-      </c>
-      <c r="D14" s="6">
-        <v>40237</v>
-      </c>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
       <c r="E14" s="5" t="s">
         <v>6</v>
       </c>
@@ -646,12 +614,8 @@
       <c r="B15" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="6">
-        <v>43871</v>
-      </c>
-      <c r="D15" s="6">
-        <v>40237</v>
-      </c>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
       <c r="E15" s="5" t="s">
         <v>6</v>
       </c>
@@ -677,12 +641,8 @@
       <c r="B18" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="6">
-        <v>43871</v>
-      </c>
-      <c r="D18" s="6">
-        <v>40237</v>
-      </c>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
       <c r="E18" s="5" t="s">
         <v>6</v>
       </c>
@@ -692,12 +652,8 @@
       <c r="B19" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="6">
-        <v>43871</v>
-      </c>
-      <c r="D19" s="6">
-        <v>40237</v>
-      </c>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
       <c r="E19" s="5" t="s">
         <v>6</v>
       </c>
@@ -707,12 +663,8 @@
       <c r="B20" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="6">
-        <v>43871</v>
-      </c>
-      <c r="D20" s="6">
-        <v>40237</v>
-      </c>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
       <c r="E20" s="5" t="s">
         <v>6</v>
       </c>

--- a/Chapter 2/Spreadsheet Car.xlsx
+++ b/Chapter 2/Spreadsheet Car.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kshitij/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B33100D9-7058-ED41-B612-5B78BCFD1B60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2594F5A-CF13-914D-BF69-372E003B56C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="23260" windowHeight="12580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/Chapter 2/Spreadsheet Car.xlsx
+++ b/Chapter 2/Spreadsheet Car.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kshitij/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2594F5A-CF13-914D-BF69-372E003B56C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C92507BD-2415-3843-A83B-3061DE29E042}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="23260" windowHeight="12580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -450,7 +450,7 @@
   <dimension ref="A1:E1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:D20"/>
+      <selection activeCell="C20" sqref="C20:D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>

--- a/Chapter 2/Spreadsheet Car.xlsx
+++ b/Chapter 2/Spreadsheet Car.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kshitij/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C92507BD-2415-3843-A83B-3061DE29E042}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92809E74-D04C-C448-8454-D9B118A6D734}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="23260" windowHeight="12580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -450,7 +450,7 @@
   <dimension ref="A1:E1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20:D20"/>
+      <selection activeCell="C18" sqref="C18:D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
